--- a/src/test/resources/ExcelFiles/TestDataDetails.xlsx
+++ b/src/test/resources/ExcelFiles/TestDataDetails.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Focalpoint Automation\FPK12AutomationProject\src\test\resources\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01EB6A5C-E0A7-439F-82DC-B922918D2B47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CF1FD33-9A9D-4080-B6A5-560EAC280A94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{27F2060D-2339-4B57-B45F-F65D856F6695}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{27F2060D-2339-4B57-B45F-F65D856F6695}"/>
   </bookViews>
   <sheets>
     <sheet name="STAGE" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="66">
   <si>
     <t>SchoolName</t>
   </si>
@@ -162,316 +162,79 @@
     <t>LearningCourseName</t>
   </si>
   <si>
-    <t>FPK12School89036</t>
-  </si>
-  <si>
-    <t>FPK12Classroom44480</t>
-  </si>
-  <si>
-    <t>FPK12Section18491</t>
-  </si>
-  <si>
-    <t>58568</t>
-  </si>
-  <si>
-    <t>79662</t>
-  </si>
-  <si>
-    <t>57594</t>
-  </si>
-  <si>
     <t>CourseDesigner18604</t>
   </si>
   <si>
-    <t>PortfolioCourse11148</t>
-  </si>
-  <si>
     <t>LearningCourse33637</t>
   </si>
   <si>
-    <t>AssignmentName11148</t>
-  </si>
-  <si>
-    <t>PortfolioCourse64278</t>
-  </si>
-  <si>
-    <t>AssignmentName64278</t>
-  </si>
-  <si>
-    <t>PortfolioCourse11966</t>
-  </si>
-  <si>
-    <t>CourseDesigner10084</t>
-  </si>
-  <si>
-    <t>AssignmentName11966</t>
-  </si>
-  <si>
-    <t>LearningCourse99642</t>
-  </si>
-  <si>
-    <t>PortfolioCourse5377</t>
-  </si>
-  <si>
-    <t>PortfolioCourse18950</t>
-  </si>
-  <si>
-    <t>LearningCourse61634</t>
-  </si>
-  <si>
-    <t>AssignmentName18950</t>
-  </si>
-  <si>
-    <t>PortfolioCourse15529</t>
-  </si>
-  <si>
-    <t>CourseDesigner42381</t>
-  </si>
-  <si>
-    <t>AssignmentName15529</t>
-  </si>
-  <si>
-    <t>PortfolioCourse64205</t>
-  </si>
-  <si>
-    <t>AssignmentName64205</t>
-  </si>
-  <si>
-    <t>LearningCourse75171</t>
-  </si>
-  <si>
-    <t>FPK12School41127</t>
-  </si>
-  <si>
-    <t>FPK12Classroom43832</t>
-  </si>
-  <si>
-    <t>FPK12Section25987</t>
-  </si>
-  <si>
-    <t>57303</t>
+    <t>CourseDesigner15242</t>
+  </si>
+  <si>
+    <t>PortfolioCourse42689</t>
+  </si>
+  <si>
+    <t>AssignmentName42689</t>
+  </si>
+  <si>
+    <t>LearningCourse73755</t>
+  </si>
+  <si>
+    <t>FPK12School45902</t>
+  </si>
+  <si>
+    <t>FPK12Classroom88205</t>
+  </si>
+  <si>
+    <t>FPK12Section57814</t>
+  </si>
+  <si>
+    <t>17388</t>
+  </si>
+  <si>
+    <t>99407</t>
+  </si>
+  <si>
+    <t>34249</t>
+  </si>
+  <si>
+    <t>PortfolioCourse15424</t>
+  </si>
+  <si>
+    <t>AssignmentName15424</t>
+  </si>
+  <si>
+    <t>FPK12School15920</t>
+  </si>
+  <si>
+    <t>FPK12Classroom94613</t>
+  </si>
+  <si>
+    <t>FPK12Section2146</t>
+  </si>
+  <si>
+    <t>40791</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
-    <t>50624</t>
-  </si>
-  <si>
-    <t>85516</t>
-  </si>
-  <si>
-    <t>CourseDesigner41818</t>
-  </si>
-  <si>
-    <t>PortfolioCourse78509</t>
-  </si>
-  <si>
-    <t>AssignmentName78509</t>
-  </si>
-  <si>
-    <t>PortfolioCourse66492</t>
-  </si>
-  <si>
-    <t>AssignmentName66492</t>
-  </si>
-  <si>
-    <t>LearningCourse14019</t>
-  </si>
-  <si>
-    <t>FPK12School12319</t>
-  </si>
-  <si>
-    <t>FPK12Classroom61912</t>
-  </si>
-  <si>
-    <t>FPK12Section72835</t>
-  </si>
-  <si>
-    <t>94216</t>
-  </si>
-  <si>
-    <t>80030</t>
-  </si>
-  <si>
-    <t>70231</t>
-  </si>
-  <si>
-    <t>PortfolioCourse62802</t>
-  </si>
-  <si>
-    <t>CourseDesigner12676</t>
-  </si>
-  <si>
-    <t>AssignmentName62802</t>
-  </si>
-  <si>
-    <t>PortfolioCourse3916</t>
-  </si>
-  <si>
-    <t>AssignmentName3916</t>
-  </si>
-  <si>
-    <t>LearningCourse14674</t>
-  </si>
-  <si>
-    <t>FPK12School20855</t>
-  </si>
-  <si>
-    <t>FPK12Classroom24044</t>
-  </si>
-  <si>
-    <t>FPK12Section48919</t>
-  </si>
-  <si>
-    <t>53724</t>
-  </si>
-  <si>
-    <t>93733</t>
-  </si>
-  <si>
-    <t>24197</t>
-  </si>
-  <si>
-    <t>PortfolioCourse20220</t>
-  </si>
-  <si>
-    <t>CourseDesigner58252</t>
-  </si>
-  <si>
-    <t>AssignmentName20220</t>
-  </si>
-  <si>
-    <t>PortfolioCourse49595</t>
-  </si>
-  <si>
-    <t>AssignmentName49595</t>
-  </si>
-  <si>
-    <t>LearningCourse30941</t>
-  </si>
-  <si>
-    <t>FPK12School18836</t>
-  </si>
-  <si>
-    <t>FPK12Classroom32585</t>
-  </si>
-  <si>
-    <t>FPK12Section37708</t>
-  </si>
-  <si>
-    <t>95035</t>
-  </si>
-  <si>
-    <t>85050</t>
-  </si>
-  <si>
-    <t>30616</t>
-  </si>
-  <si>
-    <t>PortfolioCourse5350</t>
-  </si>
-  <si>
-    <t>CourseDesigner43899</t>
-  </si>
-  <si>
-    <t>AssignmentName5350</t>
-  </si>
-  <si>
-    <t>PortfolioCourse81555</t>
-  </si>
-  <si>
-    <t>AssignmentName81555</t>
-  </si>
-  <si>
-    <t>FPK12School38584</t>
-  </si>
-  <si>
-    <t>FPK12Classroom42394</t>
-  </si>
-  <si>
-    <t>FPK12Section26943</t>
-  </si>
-  <si>
-    <t>661</t>
-  </si>
-  <si>
-    <t>86041</t>
-  </si>
-  <si>
-    <t>93288</t>
-  </si>
-  <si>
-    <t>PortfolioCourse8548</t>
-  </si>
-  <si>
-    <t>CourseDesigner85166</t>
-  </si>
-  <si>
-    <t>AssignmentName8548</t>
-  </si>
-  <si>
-    <t>PortfolioCourse79864</t>
-  </si>
-  <si>
-    <t>AssignmentName79864</t>
-  </si>
-  <si>
-    <t>FPK12School9803</t>
-  </si>
-  <si>
-    <t>FPK12Classroom1063</t>
-  </si>
-  <si>
-    <t>FPK12Section48642</t>
-  </si>
-  <si>
-    <t>49400</t>
-  </si>
-  <si>
-    <t>33887</t>
-  </si>
-  <si>
-    <t>50576</t>
-  </si>
-  <si>
-    <t>CourseDesigner2129</t>
-  </si>
-  <si>
-    <t>PortfolioCourse47542</t>
-  </si>
-  <si>
-    <t>AssignmentName47542</t>
-  </si>
-  <si>
-    <t>LearningCourse41715</t>
-  </si>
-  <si>
-    <t>FPK12School91105</t>
-  </si>
-  <si>
-    <t>FPK12Classroom91933</t>
-  </si>
-  <si>
-    <t>FPK12Section79452</t>
-  </si>
-  <si>
-    <t>26724</t>
-  </si>
-  <si>
-    <t>32793</t>
-  </si>
-  <si>
-    <t>6803</t>
-  </si>
-  <si>
-    <t>PortfolioCourse48263</t>
-  </si>
-  <si>
-    <t>CourseDesigner15242</t>
-  </si>
-  <si>
-    <t>AssignmentName48263</t>
+    <t>95981</t>
+  </si>
+  <si>
+    <t>9413</t>
+  </si>
+  <si>
+    <t>PortfolioCourse97210</t>
+  </si>
+  <si>
+    <t>CourseDesigner26892</t>
+  </si>
+  <si>
+    <t>AssignmentName97210</t>
+  </si>
+  <si>
+    <t>LearningCourse7413</t>
   </si>
 </sst>
 </file>
@@ -527,7 +290,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -608,6 +371,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <bottom style="thin"/>
     </border>
     <border>
@@ -618,7 +392,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -671,214 +445,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1217,8 +805,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{911B00C3-5650-485D-8FD9-0F4E0599A6CF}">
   <dimension ref="A1:R6"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1:R1048576"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1298,14 +886,14 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s" s="84">
-        <v>136</v>
-      </c>
-      <c r="B2" t="s" s="85">
-        <v>137</v>
-      </c>
-      <c r="C2" t="s" s="86">
-        <v>138</v>
+      <c r="A2" t="s" s="21">
+        <v>55</v>
+      </c>
+      <c r="B2" t="s" s="22">
+        <v>56</v>
+      </c>
+      <c r="C2" t="s" s="23">
+        <v>57</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>24</v>
@@ -1328,29 +916,29 @@
       <c r="J2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="20" t="s">
         <v>15</v>
       </c>
       <c r="L2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="M2" t="s" s="87">
-        <v>142</v>
-      </c>
-      <c r="N2" t="s" s="89">
-        <v>144</v>
-      </c>
-      <c r="O2" t="s" s="81">
-        <v>133</v>
-      </c>
-      <c r="P2" t="s" s="82">
-        <v>134</v>
-      </c>
-      <c r="Q2" t="s" s="88">
-        <v>143</v>
-      </c>
-      <c r="R2" t="s" s="83">
-        <v>135</v>
+      <c r="M2" t="s" s="24">
+        <v>62</v>
+      </c>
+      <c r="N2" t="s" s="26">
+        <v>64</v>
+      </c>
+      <c r="O2" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="P2" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q2" t="s" s="25">
+        <v>63</v>
+      </c>
+      <c r="R2" t="s" s="27">
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
@@ -1358,7 +946,7 @@
         <v>17</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>139</v>
+        <v>58</v>
       </c>
       <c r="F3" s="3">
         <v>1370</v>
@@ -1372,7 +960,7 @@
         <v>18</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="F4" s="3">
         <v>1370</v>
@@ -1389,7 +977,7 @@
         <v>19</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>141</v>
+        <v>61</v>
       </c>
       <c r="F5" s="3">
         <v>1370</v>
@@ -1412,7 +1000,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4110C51E-ADD3-40EA-A3F1-CB649A184727}">
   <dimension ref="A1:R6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+    <sheetView topLeftCell="I1" workbookViewId="0">
       <selection activeCell="R13" sqref="R13"/>
     </sheetView>
   </sheetViews>
@@ -1542,10 +1130,10 @@
         <v>38</v>
       </c>
       <c r="Q2" s="19" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="R2" s="19" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">

--- a/src/test/resources/ExcelFiles/TestDataDetails.xlsx
+++ b/src/test/resources/ExcelFiles/TestDataDetails.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="68">
   <si>
     <t>SchoolName</t>
   </si>
@@ -235,6 +235,12 @@
   </si>
   <si>
     <t>LearningCourse7413</t>
+  </si>
+  <si>
+    <t>CourseDesigner17974</t>
+  </si>
+  <si>
+    <t>LearningCourse88892</t>
   </si>
 </sst>
 </file>
@@ -392,7 +398,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -447,6 +453,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
@@ -934,11 +946,11 @@
       <c r="P2" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="Q2" t="s" s="25">
-        <v>63</v>
-      </c>
-      <c r="R2" t="s" s="27">
-        <v>65</v>
+      <c r="Q2" t="s" s="28">
+        <v>66</v>
+      </c>
+      <c r="R2" t="s" s="29">
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">

--- a/src/test/resources/ExcelFiles/TestDataDetails.xlsx
+++ b/src/test/resources/ExcelFiles/TestDataDetails.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="94">
   <si>
     <t>SchoolName</t>
   </si>
@@ -241,6 +241,84 @@
   </si>
   <si>
     <t>LearningCourse88892</t>
+  </si>
+  <si>
+    <t>FPK12School99746</t>
+  </si>
+  <si>
+    <t>FPK12Classroom31249</t>
+  </si>
+  <si>
+    <t>FPK12Section27163</t>
+  </si>
+  <si>
+    <t>2948</t>
+  </si>
+  <si>
+    <t>40391</t>
+  </si>
+  <si>
+    <t>39197</t>
+  </si>
+  <si>
+    <t>PortfolioCourse98729</t>
+  </si>
+  <si>
+    <t>CourseDesigner53993</t>
+  </si>
+  <si>
+    <t>AssignmentName98729</t>
+  </si>
+  <si>
+    <t>PortfolioCourse5757</t>
+  </si>
+  <si>
+    <t>AssignmentName5757</t>
+  </si>
+  <si>
+    <t>LearningCourse39967</t>
+  </si>
+  <si>
+    <t>FPK12School44961</t>
+  </si>
+  <si>
+    <t>FPK12Classroom12086</t>
+  </si>
+  <si>
+    <t>FPK12Section15343</t>
+  </si>
+  <si>
+    <t>84066</t>
+  </si>
+  <si>
+    <t>48650</t>
+  </si>
+  <si>
+    <t>23267</t>
+  </si>
+  <si>
+    <t>PortfolioCourse57064</t>
+  </si>
+  <si>
+    <t>CourseDesigner17137</t>
+  </si>
+  <si>
+    <t>AssignmentName57064</t>
+  </si>
+  <si>
+    <t>PortfolioCourse85975</t>
+  </si>
+  <si>
+    <t>AssignmentName85975</t>
+  </si>
+  <si>
+    <t>LearningCourse9076</t>
+  </si>
+  <si>
+    <t>CourseDesigner47688</t>
+  </si>
+  <si>
+    <t>LearningCourse66036</t>
   </si>
 </sst>
 </file>
@@ -398,7 +476,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -453,6 +531,66 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
@@ -898,14 +1036,14 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s" s="21">
-        <v>55</v>
-      </c>
-      <c r="B2" t="s" s="22">
-        <v>56</v>
-      </c>
-      <c r="C2" t="s" s="23">
-        <v>57</v>
+      <c r="A2" t="s" s="39">
+        <v>80</v>
+      </c>
+      <c r="B2" t="s" s="40">
+        <v>81</v>
+      </c>
+      <c r="C2" t="s" s="41">
+        <v>82</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>24</v>
@@ -934,23 +1072,23 @@
       <c r="L2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="M2" t="s" s="24">
-        <v>62</v>
-      </c>
-      <c r="N2" t="s" s="26">
-        <v>64</v>
-      </c>
-      <c r="O2" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="P2" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q2" t="s" s="28">
-        <v>66</v>
-      </c>
-      <c r="R2" t="s" s="29">
-        <v>67</v>
+      <c r="M2" t="s" s="42">
+        <v>86</v>
+      </c>
+      <c r="N2" t="s" s="44">
+        <v>88</v>
+      </c>
+      <c r="O2" t="s" s="45">
+        <v>89</v>
+      </c>
+      <c r="P2" t="s" s="46">
+        <v>90</v>
+      </c>
+      <c r="Q2" t="s" s="48">
+        <v>92</v>
+      </c>
+      <c r="R2" t="s" s="49">
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
@@ -958,7 +1096,7 @@
         <v>17</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>58</v>
+        <v>83</v>
       </c>
       <c r="F3" s="3">
         <v>1370</v>
@@ -972,7 +1110,7 @@
         <v>18</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>60</v>
+        <v>84</v>
       </c>
       <c r="F4" s="3">
         <v>1370</v>
@@ -989,7 +1127,7 @@
         <v>19</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="F5" s="3">
         <v>1370</v>

--- a/src/test/resources/ExcelFiles/TestDataDetails.xlsx
+++ b/src/test/resources/ExcelFiles/TestDataDetails.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="222">
   <si>
     <t>SchoolName</t>
   </si>
@@ -319,6 +319,390 @@
   </si>
   <si>
     <t>LearningCourse66036</t>
+  </si>
+  <si>
+    <t>FPK12School72317</t>
+  </si>
+  <si>
+    <t>FPK12Classroom98798</t>
+  </si>
+  <si>
+    <t>FPK12Section18429</t>
+  </si>
+  <si>
+    <t>99042</t>
+  </si>
+  <si>
+    <t>45114</t>
+  </si>
+  <si>
+    <t>16515</t>
+  </si>
+  <si>
+    <t>PortfolioCourse79750</t>
+  </si>
+  <si>
+    <t>CourseDesigner90134</t>
+  </si>
+  <si>
+    <t>AssignmentName79750</t>
+  </si>
+  <si>
+    <t>PortfolioCourse12670</t>
+  </si>
+  <si>
+    <t>AssignmentName12670</t>
+  </si>
+  <si>
+    <t>LearningCourse70673</t>
+  </si>
+  <si>
+    <t>PortfolioCourse63697</t>
+  </si>
+  <si>
+    <t>AssignmentName63697</t>
+  </si>
+  <si>
+    <t>PortfolioCourse34467</t>
+  </si>
+  <si>
+    <t>AssignmentName34467</t>
+  </si>
+  <si>
+    <t>PortfolioCourse95644</t>
+  </si>
+  <si>
+    <t>AssignmentName95644</t>
+  </si>
+  <si>
+    <t>PortfolioCourse33152</t>
+  </si>
+  <si>
+    <t>AssignmentName33152</t>
+  </si>
+  <si>
+    <t>PortfolioCourse79633</t>
+  </si>
+  <si>
+    <t>AssignmentName79633</t>
+  </si>
+  <si>
+    <t>PortfolioCourse683</t>
+  </si>
+  <si>
+    <t>AssignmentName683</t>
+  </si>
+  <si>
+    <t>PortfolioCourse68295</t>
+  </si>
+  <si>
+    <t>AssignmentName68295</t>
+  </si>
+  <si>
+    <t>PortfolioCourse89209</t>
+  </si>
+  <si>
+    <t>AssignmentName89209</t>
+  </si>
+  <si>
+    <t>PortfolioCourse60337</t>
+  </si>
+  <si>
+    <t>AssignmentName60337</t>
+  </si>
+  <si>
+    <t>FPK12School16474</t>
+  </si>
+  <si>
+    <t>FPK12Classroom24817</t>
+  </si>
+  <si>
+    <t>FPK12Section51185</t>
+  </si>
+  <si>
+    <t>91521</t>
+  </si>
+  <si>
+    <t>31438</t>
+  </si>
+  <si>
+    <t>71309</t>
+  </si>
+  <si>
+    <t>CourseDesigner39915</t>
+  </si>
+  <si>
+    <t>PortfolioCourse92217</t>
+  </si>
+  <si>
+    <t>AssignmentName92217</t>
+  </si>
+  <si>
+    <t>LearningCourse74057</t>
+  </si>
+  <si>
+    <t>PortfolioCourse54933</t>
+  </si>
+  <si>
+    <t>CourseDesigner59589</t>
+  </si>
+  <si>
+    <t>PortfolioCourse70780</t>
+  </si>
+  <si>
+    <t>CourseDesigner56880</t>
+  </si>
+  <si>
+    <t>PortfolioCourse58774</t>
+  </si>
+  <si>
+    <t>CourseDesigner30227</t>
+  </si>
+  <si>
+    <t>AssignmentName58774</t>
+  </si>
+  <si>
+    <t>FPK12School23611</t>
+  </si>
+  <si>
+    <t>FPK12Classroom78806</t>
+  </si>
+  <si>
+    <t>FPK12Section23427</t>
+  </si>
+  <si>
+    <t>57325</t>
+  </si>
+  <si>
+    <t>97740</t>
+  </si>
+  <si>
+    <t>51133</t>
+  </si>
+  <si>
+    <t>PortfolioCourse78707</t>
+  </si>
+  <si>
+    <t>AssignmentName78707</t>
+  </si>
+  <si>
+    <t>LearningCourse95296</t>
+  </si>
+  <si>
+    <t>FPK12School78773</t>
+  </si>
+  <si>
+    <t>FPK12Classroom29110</t>
+  </si>
+  <si>
+    <t>FPK12Section72305</t>
+  </si>
+  <si>
+    <t>13417</t>
+  </si>
+  <si>
+    <t>21527</t>
+  </si>
+  <si>
+    <t>914</t>
+  </si>
+  <si>
+    <t>PortfolioCourse75490</t>
+  </si>
+  <si>
+    <t>CourseDesigner83790</t>
+  </si>
+  <si>
+    <t>AssignmentName75490</t>
+  </si>
+  <si>
+    <t>FPK12School31378</t>
+  </si>
+  <si>
+    <t>FPK12Classroom19165</t>
+  </si>
+  <si>
+    <t>FPK12Section93528</t>
+  </si>
+  <si>
+    <t>84170</t>
+  </si>
+  <si>
+    <t>66374</t>
+  </si>
+  <si>
+    <t>5214</t>
+  </si>
+  <si>
+    <t>PortfolioCourse26691</t>
+  </si>
+  <si>
+    <t>CourseDesigner53436</t>
+  </si>
+  <si>
+    <t>AssignmentName26691</t>
+  </si>
+  <si>
+    <t>FPK12School12474</t>
+  </si>
+  <si>
+    <t>FPK12Classroom11241</t>
+  </si>
+  <si>
+    <t>FPK12Section89278</t>
+  </si>
+  <si>
+    <t>3921</t>
+  </si>
+  <si>
+    <t>93635</t>
+  </si>
+  <si>
+    <t>71633</t>
+  </si>
+  <si>
+    <t>PortfolioCourse99632</t>
+  </si>
+  <si>
+    <t>CourseDesigner58953</t>
+  </si>
+  <si>
+    <t>AssignmentName99632</t>
+  </si>
+  <si>
+    <t>PortfolioCourse61699</t>
+  </si>
+  <si>
+    <t>AssignmentName61699</t>
+  </si>
+  <si>
+    <t>LearningCourse34233</t>
+  </si>
+  <si>
+    <t>LearningCourse36998</t>
+  </si>
+  <si>
+    <t>LearningCourse77590</t>
+  </si>
+  <si>
+    <t>FPK12School52273</t>
+  </si>
+  <si>
+    <t>FPK12Classroom70888</t>
+  </si>
+  <si>
+    <t>FPK12Section57575</t>
+  </si>
+  <si>
+    <t>84624</t>
+  </si>
+  <si>
+    <t>99962</t>
+  </si>
+  <si>
+    <t>39898</t>
+  </si>
+  <si>
+    <t>PortfolioCourse14001</t>
+  </si>
+  <si>
+    <t>CourseDesigner63297</t>
+  </si>
+  <si>
+    <t>AssignmentName14001</t>
+  </si>
+  <si>
+    <t>PortfolioCourse6495</t>
+  </si>
+  <si>
+    <t>CourseDesigner79736</t>
+  </si>
+  <si>
+    <t>CourseDesigner19134</t>
+  </si>
+  <si>
+    <t>CourseDesigner72184</t>
+  </si>
+  <si>
+    <t>CourseDesigner25221</t>
+  </si>
+  <si>
+    <t>FPK12School44566</t>
+  </si>
+  <si>
+    <t>FPK12Classroom30130</t>
+  </si>
+  <si>
+    <t>FPK12Section93054</t>
+  </si>
+  <si>
+    <t>81058</t>
+  </si>
+  <si>
+    <t>4351</t>
+  </si>
+  <si>
+    <t>13907</t>
+  </si>
+  <si>
+    <t>PortfolioCourse88009</t>
+  </si>
+  <si>
+    <t>CourseDesigner35142</t>
+  </si>
+  <si>
+    <t>AssignmentName88009</t>
+  </si>
+  <si>
+    <t>PortfolioCourse98971</t>
+  </si>
+  <si>
+    <t>AssignmentName98971</t>
+  </si>
+  <si>
+    <t>PortfolioCourse19439</t>
+  </si>
+  <si>
+    <t>AssignmentName19439</t>
+  </si>
+  <si>
+    <t>FPK12School74812</t>
+  </si>
+  <si>
+    <t>FPK12Classroom46074</t>
+  </si>
+  <si>
+    <t>FPK12Section76147</t>
+  </si>
+  <si>
+    <t>43236</t>
+  </si>
+  <si>
+    <t>27883</t>
+  </si>
+  <si>
+    <t>4918</t>
+  </si>
+  <si>
+    <t>CourseDesigner68973</t>
+  </si>
+  <si>
+    <t>PortfolioCourse48014</t>
+  </si>
+  <si>
+    <t>AssignmentName48014</t>
+  </si>
+  <si>
+    <t>PortfolioCourse84631</t>
+  </si>
+  <si>
+    <t>AssignmentName84631</t>
+  </si>
+  <si>
+    <t>LearningCourse2489</t>
+  </si>
+  <si>
+    <t>LearningCourse65757</t>
   </si>
 </sst>
 </file>
@@ -476,7 +860,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="151">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -531,6 +915,309 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
@@ -1036,14 +1723,14 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s" s="39">
-        <v>80</v>
-      </c>
-      <c r="B2" t="s" s="40">
-        <v>81</v>
-      </c>
-      <c r="C2" t="s" s="41">
-        <v>82</v>
+      <c r="A2" t="s" s="141">
+        <v>209</v>
+      </c>
+      <c r="B2" t="s" s="142">
+        <v>210</v>
+      </c>
+      <c r="C2" t="s" s="143">
+        <v>211</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>24</v>
@@ -1072,23 +1759,23 @@
       <c r="L2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="M2" t="s" s="42">
-        <v>86</v>
-      </c>
-      <c r="N2" t="s" s="44">
-        <v>88</v>
-      </c>
-      <c r="O2" t="s" s="45">
-        <v>89</v>
-      </c>
-      <c r="P2" t="s" s="46">
-        <v>90</v>
-      </c>
-      <c r="Q2" t="s" s="48">
-        <v>92</v>
-      </c>
-      <c r="R2" t="s" s="49">
-        <v>93</v>
+      <c r="M2" t="s" s="145">
+        <v>216</v>
+      </c>
+      <c r="N2" t="s" s="146">
+        <v>217</v>
+      </c>
+      <c r="O2" t="s" s="147">
+        <v>218</v>
+      </c>
+      <c r="P2" t="s" s="148">
+        <v>219</v>
+      </c>
+      <c r="Q2" t="s" s="144">
+        <v>215</v>
+      </c>
+      <c r="R2" t="s" s="150">
+        <v>221</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
@@ -1096,7 +1783,7 @@
         <v>17</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>83</v>
+        <v>212</v>
       </c>
       <c r="F3" s="3">
         <v>1370</v>
@@ -1110,7 +1797,7 @@
         <v>18</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>84</v>
+        <v>213</v>
       </c>
       <c r="F4" s="3">
         <v>1370</v>
@@ -1127,7 +1814,7 @@
         <v>19</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>85</v>
+        <v>214</v>
       </c>
       <c r="F5" s="3">
         <v>1370</v>
@@ -1267,11 +1954,11 @@
       <c r="L2" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="M2" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="N2" s="11" t="s">
-        <v>36</v>
+      <c r="M2" t="s" s="139">
+        <v>207</v>
+      </c>
+      <c r="N2" t="s" s="140">
+        <v>208</v>
       </c>
       <c r="O2" s="13" t="s">
         <v>37</v>

--- a/src/test/resources/ExcelFiles/TestDataDetails.xlsx
+++ b/src/test/resources/ExcelFiles/TestDataDetails.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="235">
   <si>
     <t>SchoolName</t>
   </si>
@@ -703,6 +703,45 @@
   </si>
   <si>
     <t>LearningCourse65757</t>
+  </si>
+  <si>
+    <t>FPK12School88310</t>
+  </si>
+  <si>
+    <t>FPK12Classroom29644</t>
+  </si>
+  <si>
+    <t>FPK12Section54829</t>
+  </si>
+  <si>
+    <t>99670</t>
+  </si>
+  <si>
+    <t>91391</t>
+  </si>
+  <si>
+    <t>99569</t>
+  </si>
+  <si>
+    <t>PortfolioCourse82085</t>
+  </si>
+  <si>
+    <t>CourseDesigner6577</t>
+  </si>
+  <si>
+    <t>AssignmentName82085</t>
+  </si>
+  <si>
+    <t>PortfolioCourse57068</t>
+  </si>
+  <si>
+    <t>AssignmentName57068</t>
+  </si>
+  <si>
+    <t>LearningCourse57903</t>
+  </si>
+  <si>
+    <t>CourseDesigner27526</t>
   </si>
 </sst>
 </file>
@@ -860,7 +899,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="151">
+  <cellXfs count="161">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -915,6 +954,36 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
@@ -1723,14 +1792,14 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s" s="141">
-        <v>209</v>
-      </c>
-      <c r="B2" t="s" s="142">
-        <v>210</v>
-      </c>
-      <c r="C2" t="s" s="143">
-        <v>211</v>
+      <c r="A2" t="s" s="151">
+        <v>222</v>
+      </c>
+      <c r="B2" t="s" s="152">
+        <v>223</v>
+      </c>
+      <c r="C2" t="s" s="153">
+        <v>224</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>24</v>
@@ -1759,23 +1828,23 @@
       <c r="L2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="M2" t="s" s="145">
-        <v>216</v>
-      </c>
-      <c r="N2" t="s" s="146">
-        <v>217</v>
-      </c>
-      <c r="O2" t="s" s="147">
-        <v>218</v>
-      </c>
-      <c r="P2" t="s" s="148">
-        <v>219</v>
-      </c>
-      <c r="Q2" t="s" s="144">
-        <v>215</v>
-      </c>
-      <c r="R2" t="s" s="150">
-        <v>221</v>
+      <c r="M2" t="s" s="154">
+        <v>228</v>
+      </c>
+      <c r="N2" t="s" s="156">
+        <v>230</v>
+      </c>
+      <c r="O2" t="s" s="157">
+        <v>231</v>
+      </c>
+      <c r="P2" t="s" s="158">
+        <v>232</v>
+      </c>
+      <c r="Q2" t="s" s="160">
+        <v>234</v>
+      </c>
+      <c r="R2" t="s" s="159">
+        <v>233</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
@@ -1783,7 +1852,7 @@
         <v>17</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>212</v>
+        <v>225</v>
       </c>
       <c r="F3" s="3">
         <v>1370</v>
@@ -1797,7 +1866,7 @@
         <v>18</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>213</v>
+        <v>226</v>
       </c>
       <c r="F4" s="3">
         <v>1370</v>
@@ -1814,7 +1883,7 @@
         <v>19</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>214</v>
+        <v>227</v>
       </c>
       <c r="F5" s="3">
         <v>1370</v>

--- a/src/test/resources/ExcelFiles/TestDataDetails.xlsx
+++ b/src/test/resources/ExcelFiles/TestDataDetails.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="248">
   <si>
     <t>SchoolName</t>
   </si>
@@ -742,6 +742,45 @@
   </si>
   <si>
     <t>CourseDesigner27526</t>
+  </si>
+  <si>
+    <t>CourseDesigner86530</t>
+  </si>
+  <si>
+    <t>FPK12School44300</t>
+  </si>
+  <si>
+    <t>FPK12Classroom7790</t>
+  </si>
+  <si>
+    <t>FPK12Section72864</t>
+  </si>
+  <si>
+    <t>48451</t>
+  </si>
+  <si>
+    <t>62202</t>
+  </si>
+  <si>
+    <t>70531</t>
+  </si>
+  <si>
+    <t>PortfolioCourse38323</t>
+  </si>
+  <si>
+    <t>CourseDesigner52736</t>
+  </si>
+  <si>
+    <t>AssignmentName38323</t>
+  </si>
+  <si>
+    <t>PortfolioCourse76117</t>
+  </si>
+  <si>
+    <t>AssignmentName76117</t>
+  </si>
+  <si>
+    <t>LearningCourse96</t>
   </si>
 </sst>
 </file>
@@ -899,7 +938,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="161">
+  <cellXfs count="171">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -954,6 +993,36 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
@@ -1792,14 +1861,14 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s" s="151">
-        <v>222</v>
-      </c>
-      <c r="B2" t="s" s="152">
-        <v>223</v>
-      </c>
-      <c r="C2" t="s" s="153">
-        <v>224</v>
+      <c r="A2" t="s" s="162">
+        <v>236</v>
+      </c>
+      <c r="B2" t="s" s="163">
+        <v>237</v>
+      </c>
+      <c r="C2" t="s" s="164">
+        <v>238</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>24</v>
@@ -1828,23 +1897,23 @@
       <c r="L2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="M2" t="s" s="154">
-        <v>228</v>
-      </c>
-      <c r="N2" t="s" s="156">
-        <v>230</v>
-      </c>
-      <c r="O2" t="s" s="157">
-        <v>231</v>
-      </c>
-      <c r="P2" t="s" s="158">
-        <v>232</v>
-      </c>
-      <c r="Q2" t="s" s="160">
-        <v>234</v>
-      </c>
-      <c r="R2" t="s" s="159">
-        <v>233</v>
+      <c r="M2" t="s" s="165">
+        <v>242</v>
+      </c>
+      <c r="N2" t="s" s="167">
+        <v>244</v>
+      </c>
+      <c r="O2" t="s" s="168">
+        <v>245</v>
+      </c>
+      <c r="P2" t="s" s="169">
+        <v>246</v>
+      </c>
+      <c r="Q2" t="s" s="166">
+        <v>243</v>
+      </c>
+      <c r="R2" t="s" s="170">
+        <v>247</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
@@ -1852,7 +1921,7 @@
         <v>17</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>225</v>
+        <v>239</v>
       </c>
       <c r="F3" s="3">
         <v>1370</v>
@@ -1866,7 +1935,7 @@
         <v>18</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>226</v>
+        <v>240</v>
       </c>
       <c r="F4" s="3">
         <v>1370</v>
@@ -1883,7 +1952,7 @@
         <v>19</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>227</v>
+        <v>241</v>
       </c>
       <c r="F5" s="3">
         <v>1370</v>
@@ -2035,8 +2104,8 @@
       <c r="P2" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="Q2" s="19" t="s">
-        <v>41</v>
+      <c r="Q2" t="s" s="161">
+        <v>235</v>
       </c>
       <c r="R2" s="19" t="s">
         <v>42</v>

--- a/src/test/resources/ExcelFiles/TestDataDetails.xlsx
+++ b/src/test/resources/ExcelFiles/TestDataDetails.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="267">
   <si>
     <t>SchoolName</t>
   </si>
@@ -781,6 +781,63 @@
   </si>
   <si>
     <t>LearningCourse96</t>
+  </si>
+  <si>
+    <t>FPK12School18485</t>
+  </si>
+  <si>
+    <t>FPK12Classroom36487</t>
+  </si>
+  <si>
+    <t>FPK12Section21676</t>
+  </si>
+  <si>
+    <t>89410</t>
+  </si>
+  <si>
+    <t>58217</t>
+  </si>
+  <si>
+    <t>53562</t>
+  </si>
+  <si>
+    <t>LearningCourse43122</t>
+  </si>
+  <si>
+    <t>FPK12School8164</t>
+  </si>
+  <si>
+    <t>FPK12Classroom34115</t>
+  </si>
+  <si>
+    <t>FPK12Section96763</t>
+  </si>
+  <si>
+    <t>37487</t>
+  </si>
+  <si>
+    <t>43493</t>
+  </si>
+  <si>
+    <t>89824</t>
+  </si>
+  <si>
+    <t>PortfolioCourse88703</t>
+  </si>
+  <si>
+    <t>CourseDesigner57359</t>
+  </si>
+  <si>
+    <t>AssignmentName88703</t>
+  </si>
+  <si>
+    <t>PortfolioCourse84614</t>
+  </si>
+  <si>
+    <t>AssignmentName84614</t>
+  </si>
+  <si>
+    <t>LearningCourse90934</t>
   </si>
 </sst>
 </file>
@@ -938,7 +995,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="171">
+  <cellXfs count="184">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -993,6 +1050,45 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
@@ -1861,14 +1957,14 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s" s="162">
-        <v>236</v>
-      </c>
-      <c r="B2" t="s" s="163">
-        <v>237</v>
-      </c>
-      <c r="C2" t="s" s="164">
-        <v>238</v>
+      <c r="A2" t="s" s="175">
+        <v>255</v>
+      </c>
+      <c r="B2" t="s" s="176">
+        <v>256</v>
+      </c>
+      <c r="C2" t="s" s="177">
+        <v>257</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>24</v>
@@ -1897,23 +1993,23 @@
       <c r="L2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="M2" t="s" s="165">
-        <v>242</v>
-      </c>
-      <c r="N2" t="s" s="167">
-        <v>244</v>
-      </c>
-      <c r="O2" t="s" s="168">
-        <v>245</v>
-      </c>
-      <c r="P2" t="s" s="169">
-        <v>246</v>
-      </c>
-      <c r="Q2" t="s" s="166">
-        <v>243</v>
-      </c>
-      <c r="R2" t="s" s="170">
-        <v>247</v>
+      <c r="M2" t="s" s="178">
+        <v>261</v>
+      </c>
+      <c r="N2" t="s" s="180">
+        <v>263</v>
+      </c>
+      <c r="O2" t="s" s="181">
+        <v>264</v>
+      </c>
+      <c r="P2" t="s" s="182">
+        <v>265</v>
+      </c>
+      <c r="Q2" t="s" s="179">
+        <v>262</v>
+      </c>
+      <c r="R2" t="s" s="183">
+        <v>266</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
@@ -1921,7 +2017,7 @@
         <v>17</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>239</v>
+        <v>258</v>
       </c>
       <c r="F3" s="3">
         <v>1370</v>
@@ -1935,7 +2031,7 @@
         <v>18</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>240</v>
+        <v>259</v>
       </c>
       <c r="F4" s="3">
         <v>1370</v>
@@ -1952,7 +2048,7 @@
         <v>19</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>241</v>
+        <v>260</v>
       </c>
       <c r="F5" s="3">
         <v>1370</v>

--- a/src/test/resources/ExcelFiles/TestDataDetails.xlsx
+++ b/src/test/resources/ExcelFiles/TestDataDetails.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="447">
   <si>
     <t>SchoolName</t>
   </si>
@@ -838,6 +838,546 @@
   </si>
   <si>
     <t>LearningCourse90934</t>
+  </si>
+  <si>
+    <t>FPK12School59332</t>
+  </si>
+  <si>
+    <t>FPK12Classroom78549</t>
+  </si>
+  <si>
+    <t>FPK12Section75869</t>
+  </si>
+  <si>
+    <t>33204</t>
+  </si>
+  <si>
+    <t>40027</t>
+  </si>
+  <si>
+    <t>87304</t>
+  </si>
+  <si>
+    <t>PortfolioCourse21545</t>
+  </si>
+  <si>
+    <t>CourseDesigner41290</t>
+  </si>
+  <si>
+    <t>AssignmentName21545</t>
+  </si>
+  <si>
+    <t>PortfolioCourse43674</t>
+  </si>
+  <si>
+    <t>AssignmentName43674</t>
+  </si>
+  <si>
+    <t>FPK12School81276</t>
+  </si>
+  <si>
+    <t>FPK12Classroom19928</t>
+  </si>
+  <si>
+    <t>FPK12Section19342</t>
+  </si>
+  <si>
+    <t>FPK12Section48216</t>
+  </si>
+  <si>
+    <t>93226</t>
+  </si>
+  <si>
+    <t>22275</t>
+  </si>
+  <si>
+    <t>21708</t>
+  </si>
+  <si>
+    <t>FPK12School14391</t>
+  </si>
+  <si>
+    <t>FPK12Classroom96603</t>
+  </si>
+  <si>
+    <t>FPK12Section6912</t>
+  </si>
+  <si>
+    <t>6646</t>
+  </si>
+  <si>
+    <t>45480</t>
+  </si>
+  <si>
+    <t>63370</t>
+  </si>
+  <si>
+    <t>PortfolioCourse51468</t>
+  </si>
+  <si>
+    <t>FPK12School93326</t>
+  </si>
+  <si>
+    <t>FPK12Classroom64549</t>
+  </si>
+  <si>
+    <t>FPK12Section74633</t>
+  </si>
+  <si>
+    <t>72749</t>
+  </si>
+  <si>
+    <t>97431</t>
+  </si>
+  <si>
+    <t>31477</t>
+  </si>
+  <si>
+    <t>FPK12School50335</t>
+  </si>
+  <si>
+    <t>FPK12Classroom59616</t>
+  </si>
+  <si>
+    <t>FPK12Section88380</t>
+  </si>
+  <si>
+    <t>18895</t>
+  </si>
+  <si>
+    <t>25608</t>
+  </si>
+  <si>
+    <t>51377</t>
+  </si>
+  <si>
+    <t>PortfolioCourse58453</t>
+  </si>
+  <si>
+    <t>FPK12School83558</t>
+  </si>
+  <si>
+    <t>FPK12Classroom6823</t>
+  </si>
+  <si>
+    <t>FPK12Section35766</t>
+  </si>
+  <si>
+    <t>19224</t>
+  </si>
+  <si>
+    <t>74557</t>
+  </si>
+  <si>
+    <t>21030</t>
+  </si>
+  <si>
+    <t>PortfolioCourse76860</t>
+  </si>
+  <si>
+    <t>AssignmentName76860</t>
+  </si>
+  <si>
+    <t>FPK12School77415</t>
+  </si>
+  <si>
+    <t>FPK12Classroom84451</t>
+  </si>
+  <si>
+    <t>FPK12Section19278</t>
+  </si>
+  <si>
+    <t>26195</t>
+  </si>
+  <si>
+    <t>14384</t>
+  </si>
+  <si>
+    <t>71871</t>
+  </si>
+  <si>
+    <t>FPK12School23374</t>
+  </si>
+  <si>
+    <t>FPK12Classroom1260</t>
+  </si>
+  <si>
+    <t>FPK12Section10644</t>
+  </si>
+  <si>
+    <t>19082</t>
+  </si>
+  <si>
+    <t>75479</t>
+  </si>
+  <si>
+    <t>28450</t>
+  </si>
+  <si>
+    <t>PortfolioCourse29570</t>
+  </si>
+  <si>
+    <t>AssignmentName29570</t>
+  </si>
+  <si>
+    <t>FPK12School71250</t>
+  </si>
+  <si>
+    <t>FPK12Classroom11459</t>
+  </si>
+  <si>
+    <t>FPK12Section7802</t>
+  </si>
+  <si>
+    <t>44353</t>
+  </si>
+  <si>
+    <t>91179</t>
+  </si>
+  <si>
+    <t>25470</t>
+  </si>
+  <si>
+    <t>PortfolioCourse10315</t>
+  </si>
+  <si>
+    <t>AssignmentName10315</t>
+  </si>
+  <si>
+    <t>FPK12School72789</t>
+  </si>
+  <si>
+    <t>FPK12Classroom95589</t>
+  </si>
+  <si>
+    <t>FPK12Section89983</t>
+  </si>
+  <si>
+    <t>77632</t>
+  </si>
+  <si>
+    <t>65321</t>
+  </si>
+  <si>
+    <t>2650</t>
+  </si>
+  <si>
+    <t>PortfolioCourse74363</t>
+  </si>
+  <si>
+    <t>AssignmentName74363</t>
+  </si>
+  <si>
+    <t>FPK12School33001</t>
+  </si>
+  <si>
+    <t>FPK12Classroom60329</t>
+  </si>
+  <si>
+    <t>FPK12Section48740</t>
+  </si>
+  <si>
+    <t>39205</t>
+  </si>
+  <si>
+    <t>87604</t>
+  </si>
+  <si>
+    <t>34228</t>
+  </si>
+  <si>
+    <t>PortfolioCourse95540</t>
+  </si>
+  <si>
+    <t>AssignmentName95540</t>
+  </si>
+  <si>
+    <t>PortfolioCourse68882</t>
+  </si>
+  <si>
+    <t>AssignmentName68882</t>
+  </si>
+  <si>
+    <t>FPK12School97372</t>
+  </si>
+  <si>
+    <t>FPK12Classroom67185</t>
+  </si>
+  <si>
+    <t>FPK12Section77</t>
+  </si>
+  <si>
+    <t>18862</t>
+  </si>
+  <si>
+    <t>15648</t>
+  </si>
+  <si>
+    <t>98679</t>
+  </si>
+  <si>
+    <t>PortfolioCourse36948</t>
+  </si>
+  <si>
+    <t>AssignmentName36948</t>
+  </si>
+  <si>
+    <t>FPK12School56480</t>
+  </si>
+  <si>
+    <t>FPK12Classroom9153</t>
+  </si>
+  <si>
+    <t>FPK12Section84754</t>
+  </si>
+  <si>
+    <t>91288</t>
+  </si>
+  <si>
+    <t>98660</t>
+  </si>
+  <si>
+    <t>29436</t>
+  </si>
+  <si>
+    <t>FPK12School37543</t>
+  </si>
+  <si>
+    <t>FPK12Classroom697</t>
+  </si>
+  <si>
+    <t>FPK12Section59624</t>
+  </si>
+  <si>
+    <t>54617</t>
+  </si>
+  <si>
+    <t>15831</t>
+  </si>
+  <si>
+    <t>94802</t>
+  </si>
+  <si>
+    <t>FPK12School84624</t>
+  </si>
+  <si>
+    <t>FPK12Classroom256</t>
+  </si>
+  <si>
+    <t>FPK12Section59890</t>
+  </si>
+  <si>
+    <t>27340</t>
+  </si>
+  <si>
+    <t>64687</t>
+  </si>
+  <si>
+    <t>23254</t>
+  </si>
+  <si>
+    <t>FPK12School59237</t>
+  </si>
+  <si>
+    <t>FPK12Classroom1672</t>
+  </si>
+  <si>
+    <t>FPK12Section78781</t>
+  </si>
+  <si>
+    <t>10661</t>
+  </si>
+  <si>
+    <t>32262</t>
+  </si>
+  <si>
+    <t>87201</t>
+  </si>
+  <si>
+    <t>PortfolioCourse38375</t>
+  </si>
+  <si>
+    <t>AssignmentName38375</t>
+  </si>
+  <si>
+    <t>FPK12School34505</t>
+  </si>
+  <si>
+    <t>FPK12Classroom92932</t>
+  </si>
+  <si>
+    <t>FPK12Section96438</t>
+  </si>
+  <si>
+    <t>86030</t>
+  </si>
+  <si>
+    <t>52419</t>
+  </si>
+  <si>
+    <t>97585</t>
+  </si>
+  <si>
+    <t>PortfolioCourse56722</t>
+  </si>
+  <si>
+    <t>CourseDesigner67964</t>
+  </si>
+  <si>
+    <t>AssignmentName56722</t>
+  </si>
+  <si>
+    <t>PortfolioCourse41953</t>
+  </si>
+  <si>
+    <t>AssignmentName41953</t>
+  </si>
+  <si>
+    <t>LearningCourse72980</t>
+  </si>
+  <si>
+    <t>FPK12School71905</t>
+  </si>
+  <si>
+    <t>FPK12Classroom93070</t>
+  </si>
+  <si>
+    <t>FPK12Section78815</t>
+  </si>
+  <si>
+    <t>39273</t>
+  </si>
+  <si>
+    <t>78306</t>
+  </si>
+  <si>
+    <t>65878</t>
+  </si>
+  <si>
+    <t>PortfolioCourse80691</t>
+  </si>
+  <si>
+    <t>CourseDesigner77891</t>
+  </si>
+  <si>
+    <t>AssignmentName80691</t>
+  </si>
+  <si>
+    <t>PortfolioCourse10648</t>
+  </si>
+  <si>
+    <t>AssignmentName10648</t>
+  </si>
+  <si>
+    <t>LearningCourse71970</t>
+  </si>
+  <si>
+    <t>FPK12School77772</t>
+  </si>
+  <si>
+    <t>FPK12Classroom43315</t>
+  </si>
+  <si>
+    <t>FPK12Section60502</t>
+  </si>
+  <si>
+    <t>32039</t>
+  </si>
+  <si>
+    <t>59712</t>
+  </si>
+  <si>
+    <t>67878</t>
+  </si>
+  <si>
+    <t>PortfolioCourse63482</t>
+  </si>
+  <si>
+    <t>CourseDesigner17513</t>
+  </si>
+  <si>
+    <t>AssignmentName63482</t>
+  </si>
+  <si>
+    <t>PortfolioCourse32404</t>
+  </si>
+  <si>
+    <t>AssignmentName32404</t>
+  </si>
+  <si>
+    <t>LearningCourse30180</t>
+  </si>
+  <si>
+    <t>FPK12School16225</t>
+  </si>
+  <si>
+    <t>FPK12Classroom76198</t>
+  </si>
+  <si>
+    <t>FPK12Section57399</t>
+  </si>
+  <si>
+    <t>68651</t>
+  </si>
+  <si>
+    <t>14034</t>
+  </si>
+  <si>
+    <t>41724</t>
+  </si>
+  <si>
+    <t>PortfolioCourse6737</t>
+  </si>
+  <si>
+    <t>CourseDesigner52817</t>
+  </si>
+  <si>
+    <t>AssignmentName6737</t>
+  </si>
+  <si>
+    <t>PortfolioCourse85833</t>
+  </si>
+  <si>
+    <t>AssignmentName85833</t>
+  </si>
+  <si>
+    <t>LearningCourse89067</t>
+  </si>
+  <si>
+    <t>FPK12School2147</t>
+  </si>
+  <si>
+    <t>FPK12Classroom40421</t>
+  </si>
+  <si>
+    <t>FPK12Section28852</t>
+  </si>
+  <si>
+    <t>80281</t>
+  </si>
+  <si>
+    <t>53139</t>
+  </si>
+  <si>
+    <t>57665</t>
+  </si>
+  <si>
+    <t>PortfolioCourse60590</t>
+  </si>
+  <si>
+    <t>CourseDesigner46400</t>
+  </si>
+  <si>
+    <t>AssignmentName60590</t>
+  </si>
+  <si>
+    <t>PortfolioCourse86082</t>
+  </si>
+  <si>
+    <t>AssignmentName86082</t>
+  </si>
+  <si>
+    <t>LearningCourse16307</t>
   </si>
 </sst>
 </file>
@@ -995,7 +1535,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="184">
+  <cellXfs count="301">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1050,6 +1590,357 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
@@ -1957,14 +2848,14 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s" s="175">
-        <v>255</v>
-      </c>
-      <c r="B2" t="s" s="176">
-        <v>256</v>
-      </c>
-      <c r="C2" t="s" s="177">
-        <v>257</v>
+      <c r="A2" t="s" s="292">
+        <v>435</v>
+      </c>
+      <c r="B2" t="s" s="293">
+        <v>436</v>
+      </c>
+      <c r="C2" t="s" s="294">
+        <v>437</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>24</v>
@@ -1993,23 +2884,23 @@
       <c r="L2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="M2" t="s" s="178">
-        <v>261</v>
-      </c>
-      <c r="N2" t="s" s="180">
-        <v>263</v>
-      </c>
-      <c r="O2" t="s" s="181">
-        <v>264</v>
-      </c>
-      <c r="P2" t="s" s="182">
-        <v>265</v>
-      </c>
-      <c r="Q2" t="s" s="179">
-        <v>262</v>
-      </c>
-      <c r="R2" t="s" s="183">
-        <v>266</v>
+      <c r="M2" t="s" s="295">
+        <v>441</v>
+      </c>
+      <c r="N2" t="s" s="297">
+        <v>443</v>
+      </c>
+      <c r="O2" t="s" s="298">
+        <v>444</v>
+      </c>
+      <c r="P2" t="s" s="299">
+        <v>445</v>
+      </c>
+      <c r="Q2" t="s" s="296">
+        <v>442</v>
+      </c>
+      <c r="R2" t="s" s="300">
+        <v>446</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
@@ -2017,7 +2908,7 @@
         <v>17</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>258</v>
+        <v>438</v>
       </c>
       <c r="F3" s="3">
         <v>1370</v>
@@ -2031,7 +2922,7 @@
         <v>18</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>259</v>
+        <v>439</v>
       </c>
       <c r="F4" s="3">
         <v>1370</v>
@@ -2048,7 +2939,7 @@
         <v>19</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>260</v>
+        <v>440</v>
       </c>
       <c r="F5" s="3">
         <v>1370</v>

--- a/src/test/resources/ExcelFiles/TestDataDetails.xlsx
+++ b/src/test/resources/ExcelFiles/TestDataDetails.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="143">
   <si>
     <t>SchoolName</t>
   </si>
@@ -424,6 +424,48 @@
   </si>
   <si>
     <t>PortfolioCourse97563</t>
+  </si>
+  <si>
+    <t>FPK12School33618</t>
+  </si>
+  <si>
+    <t>FPK12Classroom45764</t>
+  </si>
+  <si>
+    <t>FPK12Section95366</t>
+  </si>
+  <si>
+    <t>79262</t>
+  </si>
+  <si>
+    <t>62109</t>
+  </si>
+  <si>
+    <t>9507</t>
+  </si>
+  <si>
+    <t>CourseDesigner87484</t>
+  </si>
+  <si>
+    <t>PortfolioCourse65343</t>
+  </si>
+  <si>
+    <t>LearningCourse33894</t>
+  </si>
+  <si>
+    <t>PortfolioCourse1255</t>
+  </si>
+  <si>
+    <t>PortfolioCourse71168</t>
+  </si>
+  <si>
+    <t>AssignmentName71168</t>
+  </si>
+  <si>
+    <t>PortfolioCourse73020</t>
+  </si>
+  <si>
+    <t>AssignmentName73020</t>
   </si>
 </sst>
 </file>
@@ -581,7 +623,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -636,6 +678,39 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
@@ -1213,14 +1288,14 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s" s="67">
-        <v>119</v>
-      </c>
-      <c r="B2" t="s" s="68">
-        <v>120</v>
-      </c>
-      <c r="C2" t="s" s="69">
-        <v>121</v>
+      <c r="A2" t="s" s="74">
+        <v>129</v>
+      </c>
+      <c r="B2" t="s" s="75">
+        <v>130</v>
+      </c>
+      <c r="C2" t="s" s="76">
+        <v>131</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>24</v>
@@ -1249,11 +1324,11 @@
       <c r="L2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="M2" t="s" s="71">
-        <v>126</v>
-      </c>
-      <c r="N2" t="s" s="72">
-        <v>127</v>
+      <c r="M2" t="s" s="83">
+        <v>141</v>
+      </c>
+      <c r="N2" t="s" s="84">
+        <v>142</v>
       </c>
       <c r="O2" t="s" s="73">
         <v>128</v>
@@ -1261,11 +1336,11 @@
       <c r="P2" t="s" s="66">
         <v>118</v>
       </c>
-      <c r="Q2" t="s" s="70">
-        <v>125</v>
-      </c>
-      <c r="R2" t="s" s="65">
-        <v>117</v>
+      <c r="Q2" t="s" s="77">
+        <v>135</v>
+      </c>
+      <c r="R2" t="s" s="79">
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
@@ -1273,7 +1348,7 @@
         <v>17</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="F3" s="3">
         <v>1370</v>
@@ -1287,7 +1362,7 @@
         <v>18</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="F4" s="3">
         <v>1370</v>
@@ -1304,7 +1379,7 @@
         <v>19</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="F5" s="3">
         <v>1370</v>
@@ -1444,11 +1519,11 @@
       <c r="L2" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="M2" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="N2" s="20" t="s">
-        <v>41</v>
+      <c r="M2" t="s" s="81">
+        <v>139</v>
+      </c>
+      <c r="N2" t="s" s="82">
+        <v>140</v>
       </c>
       <c r="O2" s="12" t="s">
         <v>35</v>

--- a/src/test/resources/ExcelFiles/TestDataDetails.xlsx
+++ b/src/test/resources/ExcelFiles/TestDataDetails.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Focalpoint Automation\FPK12AutomationProject\src\test\resources\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B586A19C-44E1-480A-9B83-DA7BCECB25C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2014D63-A10B-4371-A3C3-BFE009A996C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{27F2060D-2339-4B57-B45F-F65D856F6695}"/>
+    <workbookView xWindow="4080" yWindow="3360" windowWidth="17280" windowHeight="8880" xr2:uid="{27F2060D-2339-4B57-B45F-F65D856F6695}"/>
   </bookViews>
   <sheets>
     <sheet name="STAGE" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="56">
   <si>
     <t>SchoolName</t>
   </si>
@@ -159,270 +159,15 @@
     <t>LearningCourse33637</t>
   </si>
   <si>
-    <t>PortfolioCourse19439</t>
-  </si>
-  <si>
-    <t>AssignmentName19439</t>
-  </si>
-  <si>
     <t>CourseDesigner86530</t>
   </si>
   <si>
-    <t>FPK12School627</t>
-  </si>
-  <si>
-    <t>FPK12Classroom95963</t>
-  </si>
-  <si>
-    <t>FPK12Section72418</t>
-  </si>
-  <si>
-    <t>54950</t>
-  </si>
-  <si>
-    <t>91056</t>
-  </si>
-  <si>
-    <t>59721</t>
-  </si>
-  <si>
-    <t>PortfolioCourse16241</t>
-  </si>
-  <si>
-    <t>CourseDesigner80176</t>
-  </si>
-  <si>
-    <t>AssignmentName16241</t>
-  </si>
-  <si>
-    <t>PortfolioCourse72756</t>
-  </si>
-  <si>
-    <t>AssignmentName72756</t>
-  </si>
-  <si>
-    <t>LearningCourse45725</t>
-  </si>
-  <si>
     <t>FPK12 Automation Test</t>
   </si>
   <si>
-    <t>FPK12School56868</t>
-  </si>
-  <si>
-    <t>FPK12Classroom66893</t>
-  </si>
-  <si>
-    <t>FPK12Section54966</t>
-  </si>
-  <si>
-    <t>79655</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>76128</t>
-  </si>
-  <si>
-    <t>1301</t>
-  </si>
-  <si>
-    <t>PortfolioCourse20587</t>
-  </si>
-  <si>
-    <t>CourseDesigner42188</t>
-  </si>
-  <si>
-    <t>AssignmentName20587</t>
-  </si>
-  <si>
-    <t>PortfolioCourse59475</t>
-  </si>
-  <si>
-    <t>AssignmentName59475</t>
-  </si>
-  <si>
-    <t>LearningCourse71297</t>
-  </si>
-  <si>
-    <t>FPK12School18878</t>
-  </si>
-  <si>
-    <t>FPK12Classroom17509</t>
-  </si>
-  <si>
-    <t>FPK12Section94530</t>
-  </si>
-  <si>
-    <t>73265</t>
-  </si>
-  <si>
-    <t>81543</t>
-  </si>
-  <si>
-    <t>44890</t>
-  </si>
-  <si>
-    <t>CourseDesigner99855</t>
-  </si>
-  <si>
-    <t>PortfolioCourse50814</t>
-  </si>
-  <si>
-    <t>AssignmentName50814</t>
-  </si>
-  <si>
-    <t>PortfolioCourse44881</t>
-  </si>
-  <si>
-    <t>AssignmentName44881</t>
-  </si>
-  <si>
-    <t>LearningCourse16476</t>
-  </si>
-  <si>
-    <t>FPK12School60291</t>
-  </si>
-  <si>
-    <t>FPK12Classroom31408</t>
-  </si>
-  <si>
-    <t>FPK12Section51453</t>
-  </si>
-  <si>
-    <t>44138</t>
-  </si>
-  <si>
-    <t>70549</t>
-  </si>
-  <si>
-    <t>35451</t>
-  </si>
-  <si>
-    <t>PortfolioCourse14241</t>
-  </si>
-  <si>
-    <t>AssignmentName14241</t>
-  </si>
-  <si>
-    <t>LearningCourse8291</t>
-  </si>
-  <si>
-    <t>FPK12School87125</t>
-  </si>
-  <si>
-    <t>FPK12Classroom59326</t>
-  </si>
-  <si>
-    <t>FPK12Section93573</t>
-  </si>
-  <si>
-    <t>20901</t>
-  </si>
-  <si>
-    <t>PortfolioCourse45199</t>
-  </si>
-  <si>
-    <t>CourseDesigner76660</t>
-  </si>
-  <si>
-    <t>AssignmentName45199</t>
-  </si>
-  <si>
-    <t>PortfolioCourse41149</t>
-  </si>
-  <si>
-    <t>AssignmentName41149</t>
-  </si>
-  <si>
-    <t>FPK12School32761</t>
-  </si>
-  <si>
-    <t>FPK12Classroom83643</t>
-  </si>
-  <si>
-    <t>FPK12Section9190</t>
-  </si>
-  <si>
-    <t>58224</t>
-  </si>
-  <si>
-    <t>47385</t>
-  </si>
-  <si>
-    <t>97996</t>
-  </si>
-  <si>
-    <t>PortfolioCourse78054</t>
-  </si>
-  <si>
-    <t>CourseDesigner80519</t>
-  </si>
-  <si>
-    <t>FPK12School13288</t>
-  </si>
-  <si>
-    <t>FPK12Classroom79131</t>
-  </si>
-  <si>
-    <t>FPK12Section69597</t>
-  </si>
-  <si>
-    <t>48818</t>
-  </si>
-  <si>
-    <t>24094</t>
-  </si>
-  <si>
-    <t>88539</t>
-  </si>
-  <si>
-    <t>PortfolioCourse36465</t>
-  </si>
-  <si>
-    <t>CourseDesigner72459</t>
-  </si>
-  <si>
-    <t>AssignmentName36465</t>
-  </si>
-  <si>
-    <t>PortfolioCourse32982</t>
-  </si>
-  <si>
-    <t>LearningCourse97969</t>
-  </si>
-  <si>
     <t>AssignmentName32982</t>
   </si>
   <si>
-    <t>FPK12School53411</t>
-  </si>
-  <si>
-    <t>FPK12Classroom78389</t>
-  </si>
-  <si>
-    <t>FPK12Section80423</t>
-  </si>
-  <si>
-    <t>17145</t>
-  </si>
-  <si>
-    <t>87696</t>
-  </si>
-  <si>
-    <t>1083</t>
-  </si>
-  <si>
-    <t>CourseDesigner71959</t>
-  </si>
-  <si>
-    <t>PortfolioCourse86476</t>
-  </si>
-  <si>
-    <t>AssignmentName86476</t>
-  </si>
-  <si>
     <t>PortfolioCourse97563</t>
   </si>
   <si>
@@ -447,33 +192,26 @@
     <t>CourseDesigner87484</t>
   </si>
   <si>
-    <t>PortfolioCourse65343</t>
-  </si>
-  <si>
     <t>LearningCourse33894</t>
   </si>
   <si>
-    <t>PortfolioCourse1255</t>
-  </si>
-  <si>
     <t>PortfolioCourse71168</t>
   </si>
   <si>
     <t>AssignmentName71168</t>
   </si>
   <si>
-    <t>PortfolioCourse73020</t>
-  </si>
-  <si>
-    <t>AssignmentName73020</t>
+    <t>PortfolioCourse36831</t>
+  </si>
+  <si>
+    <t>AssignmentName36831</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -506,6 +244,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333335"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -521,7 +266,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -613,17 +358,21 @@
       <diagonal/>
     </border>
     <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <right style="thin"/>
-      <bottom style="thin"/>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -679,198 +428,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1207,28 +768,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{911B00C3-5650-485D-8FD9-0F4E0599A6CF}">
   <dimension ref="A1:R6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="30.0"/>
-    <col min="2" max="2" customWidth="true" width="23.5546875"/>
-    <col min="3" max="3" customWidth="true" width="24.77734375"/>
-    <col min="4" max="4" customWidth="true" style="1" width="19.88671875"/>
-    <col min="5" max="5" customWidth="true" style="1" width="23.77734375"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="1" width="20.5546875"/>
-    <col min="8" max="8" customWidth="true" width="31.5546875"/>
-    <col min="10" max="10" customWidth="true" width="19.77734375"/>
-    <col min="11" max="11" customWidth="true" width="15.0"/>
-    <col min="12" max="12" customWidth="true" width="18.33203125"/>
-    <col min="13" max="13" customWidth="true" width="18.88671875"/>
-    <col min="14" max="14" customWidth="true" width="20.109375"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="23.33203125"/>
-    <col min="16" max="16" customWidth="true" width="21.0"/>
-    <col min="17" max="17" customWidth="true" width="22.0"/>
-    <col min="18" max="18" customWidth="true" width="26.33203125"/>
+    <col min="1" max="1" width="30" customWidth="1"/>
+    <col min="2" max="2" width="23.5546875" customWidth="1"/>
+    <col min="3" max="3" width="24.77734375" customWidth="1"/>
+    <col min="4" max="4" width="19.88671875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="23.77734375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="20.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31.5546875" customWidth="1"/>
+    <col min="10" max="10" width="19.77734375" customWidth="1"/>
+    <col min="11" max="11" width="15" customWidth="1"/>
+    <col min="12" max="12" width="18.33203125" customWidth="1"/>
+    <col min="13" max="13" width="18.88671875" customWidth="1"/>
+    <col min="14" max="14" width="20.109375" customWidth="1"/>
+    <col min="15" max="15" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21" customWidth="1"/>
+    <col min="17" max="17" width="22" customWidth="1"/>
+    <col min="18" max="18" width="26.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -1288,14 +849,14 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s" s="74">
-        <v>129</v>
-      </c>
-      <c r="B2" t="s" s="75">
-        <v>130</v>
-      </c>
-      <c r="C2" t="s" s="76">
-        <v>131</v>
+      <c r="A2" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>46</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>24</v>
@@ -1316,7 +877,7 @@
         <v>2024</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="K2" s="19" t="s">
         <v>15</v>
@@ -1324,23 +885,23 @@
       <c r="L2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="M2" t="s" s="83">
-        <v>141</v>
-      </c>
-      <c r="N2" t="s" s="84">
-        <v>142</v>
-      </c>
-      <c r="O2" t="s" s="73">
-        <v>128</v>
-      </c>
-      <c r="P2" t="s" s="66">
-        <v>118</v>
-      </c>
-      <c r="Q2" t="s" s="77">
-        <v>135</v>
-      </c>
-      <c r="R2" t="s" s="79">
-        <v>137</v>
+      <c r="M2" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="N2" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="O2" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="P2" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q2" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="R2" s="21" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
@@ -1348,7 +909,7 @@
         <v>17</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>132</v>
+        <v>47</v>
       </c>
       <c r="F3" s="3">
         <v>1370</v>
@@ -1362,7 +923,7 @@
         <v>18</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>133</v>
+        <v>48</v>
       </c>
       <c r="F4" s="3">
         <v>1370</v>
@@ -1379,7 +940,7 @@
         <v>19</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>134</v>
+        <v>49</v>
       </c>
       <c r="F5" s="3">
         <v>1370</v>
@@ -1408,22 +969,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="30.0"/>
-    <col min="2" max="2" customWidth="true" width="23.5546875"/>
-    <col min="3" max="3" customWidth="true" width="24.77734375"/>
-    <col min="4" max="4" customWidth="true" style="1" width="19.88671875"/>
-    <col min="5" max="5" customWidth="true" style="1" width="23.77734375"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="1" width="20.5546875"/>
-    <col min="8" max="8" customWidth="true" width="31.5546875"/>
-    <col min="10" max="10" customWidth="true" width="19.77734375"/>
-    <col min="11" max="11" customWidth="true" width="15.0"/>
-    <col min="12" max="12" customWidth="true" width="18.33203125"/>
-    <col min="13" max="13" customWidth="true" width="18.88671875"/>
-    <col min="14" max="14" customWidth="true" width="20.109375"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="23.33203125"/>
-    <col min="16" max="16" customWidth="true" width="21.0"/>
-    <col min="17" max="17" customWidth="true" width="22.0"/>
-    <col min="18" max="18" customWidth="true" width="26.33203125"/>
+    <col min="1" max="1" width="30" customWidth="1"/>
+    <col min="2" max="2" width="23.5546875" customWidth="1"/>
+    <col min="3" max="3" width="24.77734375" customWidth="1"/>
+    <col min="4" max="4" width="19.88671875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="23.77734375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="20.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31.5546875" customWidth="1"/>
+    <col min="10" max="10" width="19.77734375" customWidth="1"/>
+    <col min="11" max="11" width="15" customWidth="1"/>
+    <col min="12" max="12" width="18.33203125" customWidth="1"/>
+    <col min="13" max="13" width="18.88671875" customWidth="1"/>
+    <col min="14" max="14" width="20.109375" customWidth="1"/>
+    <col min="15" max="15" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21" customWidth="1"/>
+    <col min="17" max="17" width="22" customWidth="1"/>
+    <col min="18" max="18" width="26.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -1519,11 +1080,11 @@
       <c r="L2" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="M2" t="s" s="81">
-        <v>139</v>
-      </c>
-      <c r="N2" t="s" s="82">
-        <v>140</v>
+      <c r="M2" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="N2" s="21" t="s">
+        <v>53</v>
       </c>
       <c r="O2" s="12" t="s">
         <v>35</v>
@@ -1532,7 +1093,7 @@
         <v>36</v>
       </c>
       <c r="Q2" s="20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="R2" s="18" t="s">
         <v>39</v>

--- a/src/test/resources/ExcelFiles/TestDataDetails.xlsx
+++ b/src/test/resources/ExcelFiles/TestDataDetails.xlsx
@@ -3,22 +3,23 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Focalpoint Automation\FPK12AutomationProject\src\test\resources\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2014D63-A10B-4371-A3C3-BFE009A996C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5B3685F-9F87-4340-990E-42AFDB293B74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4080" yWindow="3360" windowWidth="17280" windowHeight="8880" xr2:uid="{27F2060D-2339-4B57-B45F-F65D856F6695}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{27F2060D-2339-4B57-B45F-F65D856F6695}"/>
   </bookViews>
   <sheets>
     <sheet name="STAGE" sheetId="1" r:id="rId1"/>
-    <sheet name="LMSPROD" sheetId="2" r:id="rId2"/>
+    <sheet name="Demo" sheetId="3" r:id="rId2"/>
+    <sheet name="LMSPROD" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="278">
   <si>
     <t>SchoolName</t>
   </si>
@@ -165,52 +166,719 @@
     <t>FPK12 Automation Test</t>
   </si>
   <si>
-    <t>AssignmentName32982</t>
-  </si>
-  <si>
-    <t>PortfolioCourse97563</t>
-  </si>
-  <si>
-    <t>FPK12School33618</t>
-  </si>
-  <si>
-    <t>FPK12Classroom45764</t>
-  </si>
-  <si>
-    <t>FPK12Section95366</t>
-  </si>
-  <si>
-    <t>79262</t>
-  </si>
-  <si>
-    <t>62109</t>
-  </si>
-  <si>
-    <t>9507</t>
-  </si>
-  <si>
-    <t>CourseDesigner87484</t>
-  </si>
-  <si>
-    <t>LearningCourse33894</t>
-  </si>
-  <si>
     <t>PortfolioCourse71168</t>
   </si>
   <si>
     <t>AssignmentName71168</t>
   </si>
   <si>
-    <t>PortfolioCourse36831</t>
-  </si>
-  <si>
-    <t>AssignmentName36831</t>
+    <t>CourseDesigner91956</t>
+  </si>
+  <si>
+    <t>LearningCourse55632</t>
+  </si>
+  <si>
+    <t>PortfolioCourse76418</t>
+  </si>
+  <si>
+    <t>AssignmentName76418</t>
+  </si>
+  <si>
+    <t>PortfolioCourse14169</t>
+  </si>
+  <si>
+    <t>AssignmentName14169</t>
+  </si>
+  <si>
+    <t>FPK12School36313</t>
+  </si>
+  <si>
+    <t>FPK12Classroom491</t>
+  </si>
+  <si>
+    <t>FPK12Section53386</t>
+  </si>
+  <si>
+    <t>38625</t>
+  </si>
+  <si>
+    <t>61366</t>
+  </si>
+  <si>
+    <t>55895</t>
+  </si>
+  <si>
+    <t>districtuser</t>
+  </si>
+  <si>
+    <t>demo</t>
+  </si>
+  <si>
+    <t>FPK12School20124</t>
+  </si>
+  <si>
+    <t>FPK12Classroom66933</t>
+  </si>
+  <si>
+    <t>FPK12Section25063</t>
+  </si>
+  <si>
+    <t>72801</t>
+  </si>
+  <si>
+    <t>23057</t>
+  </si>
+  <si>
+    <t>43095</t>
+  </si>
+  <si>
+    <t>FPK12School88656</t>
+  </si>
+  <si>
+    <t>FPK12Classroom45704</t>
+  </si>
+  <si>
+    <t>FPK12Section95788</t>
+  </si>
+  <si>
+    <t>32310</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>89095</t>
+  </si>
+  <si>
+    <t>55551</t>
+  </si>
+  <si>
+    <t>FPK12School39235</t>
+  </si>
+  <si>
+    <t>FPK12Classroom99472</t>
+  </si>
+  <si>
+    <t>FPK12Section32151</t>
+  </si>
+  <si>
+    <t>4188</t>
+  </si>
+  <si>
+    <t>64606</t>
+  </si>
+  <si>
+    <t>77772</t>
+  </si>
+  <si>
+    <t>FPK12School13218</t>
+  </si>
+  <si>
+    <t>FPK12Classroom93286</t>
+  </si>
+  <si>
+    <t>FPK12Section59858</t>
+  </si>
+  <si>
+    <t>70884</t>
+  </si>
+  <si>
+    <t>75414</t>
+  </si>
+  <si>
+    <t>73312</t>
+  </si>
+  <si>
+    <t>PortfolioCourse77105</t>
+  </si>
+  <si>
+    <t>CourseDesigner28741</t>
+  </si>
+  <si>
+    <t>AssignmentName77105</t>
+  </si>
+  <si>
+    <t>FPK12School45175</t>
+  </si>
+  <si>
+    <t>FPK12Classroom4475</t>
+  </si>
+  <si>
+    <t>FPK12Section68186</t>
+  </si>
+  <si>
+    <t>92803</t>
+  </si>
+  <si>
+    <t>97224</t>
+  </si>
+  <si>
+    <t>85046</t>
+  </si>
+  <si>
+    <t>PortfolioCourse25104</t>
+  </si>
+  <si>
+    <t>CourseDesigner84353</t>
+  </si>
+  <si>
+    <t>AssignmentName25104</t>
+  </si>
+  <si>
+    <t>LearningCourse4070</t>
+  </si>
+  <si>
+    <t>PortfolioCourse36993</t>
+  </si>
+  <si>
+    <t>FPK12School63364</t>
+  </si>
+  <si>
+    <t>FPK12Classroom23586</t>
+  </si>
+  <si>
+    <t>FPK12Section504</t>
+  </si>
+  <si>
+    <t>63458</t>
+  </si>
+  <si>
+    <t>20063</t>
+  </si>
+  <si>
+    <t>62841</t>
+  </si>
+  <si>
+    <t>PortfolioCourse9382</t>
+  </si>
+  <si>
+    <t>CourseDesigner71478</t>
+  </si>
+  <si>
+    <t>AssignmentName9382</t>
+  </si>
+  <si>
+    <t>LearningCourse77229</t>
+  </si>
+  <si>
+    <t>PortfolioCourse22367</t>
+  </si>
+  <si>
+    <t>AssignmentName22367</t>
+  </si>
+  <si>
+    <t>FPK12School85812</t>
+  </si>
+  <si>
+    <t>FPK12Classroom1090</t>
+  </si>
+  <si>
+    <t>FPK12Section92234</t>
+  </si>
+  <si>
+    <t>34461</t>
+  </si>
+  <si>
+    <t>62226</t>
+  </si>
+  <si>
+    <t>27212</t>
+  </si>
+  <si>
+    <t>FPK12School7842</t>
+  </si>
+  <si>
+    <t>FPK12Classroom80606</t>
+  </si>
+  <si>
+    <t>FPK12Section56729</t>
+  </si>
+  <si>
+    <t>41902</t>
+  </si>
+  <si>
+    <t>84354</t>
+  </si>
+  <si>
+    <t>72808</t>
+  </si>
+  <si>
+    <t>PortfolioCourse80231</t>
+  </si>
+  <si>
+    <t>CourseDesigner3955</t>
+  </si>
+  <si>
+    <t>AssignmentName80231</t>
+  </si>
+  <si>
+    <t>PortfolioCourse15077</t>
+  </si>
+  <si>
+    <t>AssignmentName15077</t>
+  </si>
+  <si>
+    <t>FPK12School94533</t>
+  </si>
+  <si>
+    <t>FPK12Classroom94041</t>
+  </si>
+  <si>
+    <t>FPK12Section79801</t>
+  </si>
+  <si>
+    <t>21054</t>
+  </si>
+  <si>
+    <t>76517</t>
+  </si>
+  <si>
+    <t>FPK12School91731</t>
+  </si>
+  <si>
+    <t>FPK12Classroom433</t>
+  </si>
+  <si>
+    <t>FPK12Section81970</t>
+  </si>
+  <si>
+    <t>FPK12Section62499</t>
+  </si>
+  <si>
+    <t>26771</t>
+  </si>
+  <si>
+    <t>33548</t>
+  </si>
+  <si>
+    <t>27589</t>
+  </si>
+  <si>
+    <t>CourseDesigner54027</t>
+  </si>
+  <si>
+    <t>PortfolioCourse49547</t>
+  </si>
+  <si>
+    <t>AssignmentName49547</t>
+  </si>
+  <si>
+    <t>CourseDesigner40468</t>
+  </si>
+  <si>
+    <t>CourseDesigner68377</t>
+  </si>
+  <si>
+    <t>LearningCourse72982</t>
+  </si>
+  <si>
+    <t>CourseDesigner23039</t>
+  </si>
+  <si>
+    <t>CourseDesigner95756</t>
+  </si>
+  <si>
+    <t>CourseDesigner69613</t>
+  </si>
+  <si>
+    <t>CourseDesigner62984</t>
+  </si>
+  <si>
+    <t>CourseDesigner92888</t>
+  </si>
+  <si>
+    <t>CourseDesigner38109</t>
+  </si>
+  <si>
+    <t>FPK12School30718</t>
+  </si>
+  <si>
+    <t>FPK12Classroom55684</t>
+  </si>
+  <si>
+    <t>FPK12Section9762</t>
+  </si>
+  <si>
+    <t>FPK12Section94513</t>
+  </si>
+  <si>
+    <t>70038</t>
+  </si>
+  <si>
+    <t>89780</t>
+  </si>
+  <si>
+    <t>75526</t>
+  </si>
+  <si>
+    <t>PortfolioCourse33525</t>
+  </si>
+  <si>
+    <t>AssignmentName33525</t>
+  </si>
+  <si>
+    <t>PortfolioCourse91602</t>
+  </si>
+  <si>
+    <t>AssignmentName91602</t>
+  </si>
+  <si>
+    <t>CourseDesigner13559</t>
+  </si>
+  <si>
+    <t>LearningCourse14467</t>
+  </si>
+  <si>
+    <t>CourseDesigner12719</t>
+  </si>
+  <si>
+    <t>LearningCourse54625</t>
+  </si>
+  <si>
+    <t>CourseDesigner65990</t>
+  </si>
+  <si>
+    <t>LearningCourse67253</t>
+  </si>
+  <si>
+    <t>FPK12School42845</t>
+  </si>
+  <si>
+    <t>FPK12Classroom7084</t>
+  </si>
+  <si>
+    <t>FPK12Section95068</t>
+  </si>
+  <si>
+    <t>77965</t>
+  </si>
+  <si>
+    <t>64591</t>
+  </si>
+  <si>
+    <t>2191</t>
+  </si>
+  <si>
+    <t>PortfolioCourse43164</t>
+  </si>
+  <si>
+    <t>CourseDesigner40909</t>
+  </si>
+  <si>
+    <t>AssignmentName43164</t>
+  </si>
+  <si>
+    <t>CourseDesigner74769</t>
+  </si>
+  <si>
+    <t>LearningCourse31619</t>
+  </si>
+  <si>
+    <t>FPK12School31934</t>
+  </si>
+  <si>
+    <t>FPK12Classroom52198</t>
+  </si>
+  <si>
+    <t>FPK12Section4053</t>
+  </si>
+  <si>
+    <t>14934</t>
+  </si>
+  <si>
+    <t>3325</t>
+  </si>
+  <si>
+    <t>50749</t>
+  </si>
+  <si>
+    <t>PortfolioCourse46676</t>
+  </si>
+  <si>
+    <t>CourseDesigner64853</t>
+  </si>
+  <si>
+    <t>AssignmentName46676</t>
+  </si>
+  <si>
+    <t>PortfolioCourse21413</t>
+  </si>
+  <si>
+    <t>AssignmentName21413</t>
+  </si>
+  <si>
+    <t>LearningCourse74567</t>
+  </si>
+  <si>
+    <t>FPK12School16231</t>
+  </si>
+  <si>
+    <t>FPK12Classroom16047</t>
+  </si>
+  <si>
+    <t>FPK12Section16957</t>
+  </si>
+  <si>
+    <t>3087</t>
+  </si>
+  <si>
+    <t>90749</t>
+  </si>
+  <si>
+    <t>29746</t>
+  </si>
+  <si>
+    <t>PortfolioCourse6935</t>
+  </si>
+  <si>
+    <t>CourseDesigner54033</t>
+  </si>
+  <si>
+    <t>AssignmentName6935</t>
+  </si>
+  <si>
+    <t>PortfolioCourse93401</t>
+  </si>
+  <si>
+    <t>AssignmentName93401</t>
+  </si>
+  <si>
+    <t>LearningCourse21347</t>
+  </si>
+  <si>
+    <t>CourseDesigner87862</t>
+  </si>
+  <si>
+    <t>LearningCourse52122</t>
+  </si>
+  <si>
+    <t>PortfolioCourse15341</t>
+  </si>
+  <si>
+    <t>CourseDesigner74274</t>
+  </si>
+  <si>
+    <t>AssignmentName15341</t>
+  </si>
+  <si>
+    <t>PortfolioCourse82049</t>
+  </si>
+  <si>
+    <t>AssignmentName82049</t>
+  </si>
+  <si>
+    <t>LearningCourse96477</t>
+  </si>
+  <si>
+    <t>88937</t>
+  </si>
+  <si>
+    <t>FPK12School58786</t>
+  </si>
+  <si>
+    <t>FPK12Classroom58546</t>
+  </si>
+  <si>
+    <t>FPK12School68850</t>
+  </si>
+  <si>
+    <t>FPK12Classroom25981</t>
+  </si>
+  <si>
+    <t>FPK12Section48228</t>
+  </si>
+  <si>
+    <t>FPK12School85770</t>
+  </si>
+  <si>
+    <t>FPK12Classroom55936</t>
+  </si>
+  <si>
+    <t>FPK12Section22128</t>
+  </si>
+  <si>
+    <t>FPK12School23903</t>
+  </si>
+  <si>
+    <t>FPK12Classroom32640</t>
+  </si>
+  <si>
+    <t>FPK12Section8373</t>
+  </si>
+  <si>
+    <t>15378</t>
+  </si>
+  <si>
+    <t>52325</t>
+  </si>
+  <si>
+    <t>CourseDesigner85561</t>
+  </si>
+  <si>
+    <t>PortfolioCourse18922</t>
+  </si>
+  <si>
+    <t>AssignmentName18922</t>
+  </si>
+  <si>
+    <t>LearningCourse58162</t>
+  </si>
+  <si>
+    <t>PortfolioCourse26480</t>
+  </si>
+  <si>
+    <t>AssignmentName26480</t>
+  </si>
+  <si>
+    <t>FPK12School77551</t>
+  </si>
+  <si>
+    <t>FPK12Classroom46450</t>
+  </si>
+  <si>
+    <t>FPK12Section10519</t>
+  </si>
+  <si>
+    <t>88118</t>
+  </si>
+  <si>
+    <t>90008</t>
+  </si>
+  <si>
+    <t>85767</t>
+  </si>
+  <si>
+    <t>FPK12School21602</t>
+  </si>
+  <si>
+    <t>FPK12Classroom91306</t>
+  </si>
+  <si>
+    <t>FPK12Section26070</t>
+  </si>
+  <si>
+    <t>36179</t>
+  </si>
+  <si>
+    <t>66740</t>
+  </si>
+  <si>
+    <t>96070</t>
+  </si>
+  <si>
+    <t>PortfolioCourse72</t>
+  </si>
+  <si>
+    <t>CourseDesigner24554</t>
+  </si>
+  <si>
+    <t>FPK12School35802</t>
+  </si>
+  <si>
+    <t>FPK12Classroom38556</t>
+  </si>
+  <si>
+    <t>FPK12Section9484</t>
+  </si>
+  <si>
+    <t>32069</t>
+  </si>
+  <si>
+    <t>62510</t>
+  </si>
+  <si>
+    <t>3404</t>
+  </si>
+  <si>
+    <t>FPK12School32214</t>
+  </si>
+  <si>
+    <t>FPK12Classroom74739</t>
+  </si>
+  <si>
+    <t>FPK12Section44784</t>
+  </si>
+  <si>
+    <t>89731</t>
+  </si>
+  <si>
+    <t>77934</t>
+  </si>
+  <si>
+    <t>19833</t>
+  </si>
+  <si>
+    <t>PortfolioCourse62683</t>
+  </si>
+  <si>
+    <t>CourseDesigner64554</t>
+  </si>
+  <si>
+    <t>AssignmentName62683</t>
+  </si>
+  <si>
+    <t>PortfolioCourse22320</t>
+  </si>
+  <si>
+    <t>AssignmentName22320</t>
+  </si>
+  <si>
+    <t>LearningCourse27965</t>
+  </si>
+  <si>
+    <t>LearningCourse74433</t>
+  </si>
+  <si>
+    <t>LearningCourse58965</t>
+  </si>
+  <si>
+    <t>LearningCourse45520</t>
+  </si>
+  <si>
+    <t>LearningCourse74776</t>
+  </si>
+  <si>
+    <t>FPK12School38914</t>
+  </si>
+  <si>
+    <t>FPK12Classroom72468</t>
+  </si>
+  <si>
+    <t>FPK12Section3063</t>
+  </si>
+  <si>
+    <t>56395</t>
+  </si>
+  <si>
+    <t>46699</t>
+  </si>
+  <si>
+    <t>40597</t>
+  </si>
+  <si>
+    <t>PortfolioCourse28492</t>
+  </si>
+  <si>
+    <t>CourseDesigner280</t>
+  </si>
+  <si>
+    <t>AssignmentName28492</t>
+  </si>
+  <si>
+    <t>PortfolioCourse51732</t>
+  </si>
+  <si>
+    <t>AssignmentName51732</t>
+  </si>
+  <si>
+    <t>LearningCourse14916</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -245,11 +913,10 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF333335"/>
-      <name val="Aptos Narrow"/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -266,7 +933,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -368,11 +1035,40 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="182">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -431,7 +1127,486 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -768,28 +1943,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{911B00C3-5650-485D-8FD9-0F4E0599A6CF}">
   <dimension ref="A1:R6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30" customWidth="1"/>
-    <col min="2" max="2" width="23.5546875" customWidth="1"/>
-    <col min="3" max="3" width="24.77734375" customWidth="1"/>
-    <col min="4" max="4" width="19.88671875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="23.77734375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="20.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="31.5546875" customWidth="1"/>
-    <col min="10" max="10" width="19.77734375" customWidth="1"/>
-    <col min="11" max="11" width="15" customWidth="1"/>
-    <col min="12" max="12" width="18.33203125" customWidth="1"/>
-    <col min="13" max="13" width="18.88671875" customWidth="1"/>
-    <col min="14" max="14" width="20.109375" customWidth="1"/>
-    <col min="15" max="15" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21" customWidth="1"/>
-    <col min="17" max="17" width="22" customWidth="1"/>
-    <col min="18" max="18" width="26.33203125" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="30.0"/>
+    <col min="2" max="2" customWidth="true" width="23.5546875"/>
+    <col min="3" max="3" customWidth="true" width="24.77734375"/>
+    <col min="4" max="4" customWidth="true" style="1" width="19.88671875"/>
+    <col min="5" max="5" customWidth="true" style="1" width="23.77734375"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="1" width="20.5546875"/>
+    <col min="8" max="8" customWidth="true" width="31.5546875"/>
+    <col min="10" max="10" customWidth="true" width="19.77734375"/>
+    <col min="11" max="11" customWidth="true" width="15.0"/>
+    <col min="12" max="12" customWidth="true" width="18.33203125"/>
+    <col min="13" max="13" customWidth="true" width="18.88671875"/>
+    <col min="14" max="14" customWidth="true" width="20.109375"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="23.33203125"/>
+    <col min="16" max="16" customWidth="true" width="21.0"/>
+    <col min="17" max="17" customWidth="true" width="22.0"/>
+    <col min="18" max="18" customWidth="true" width="26.33203125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -849,14 +2024,14 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="B2" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="C2" s="21" t="s">
-        <v>46</v>
+      <c r="A2" t="s" s="173">
+        <v>266</v>
+      </c>
+      <c r="B2" t="s" s="174">
+        <v>267</v>
+      </c>
+      <c r="C2" t="s" s="175">
+        <v>268</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>24</v>
@@ -885,23 +2060,23 @@
       <c r="L2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="N2" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="O2" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="P2" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q2" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="R2" s="21" t="s">
-        <v>51</v>
+      <c r="M2" t="s" s="176">
+        <v>272</v>
+      </c>
+      <c r="N2" t="s" s="178">
+        <v>274</v>
+      </c>
+      <c r="O2" t="s" s="179">
+        <v>275</v>
+      </c>
+      <c r="P2" t="s" s="180">
+        <v>276</v>
+      </c>
+      <c r="Q2" t="s" s="177">
+        <v>273</v>
+      </c>
+      <c r="R2" t="s" s="181">
+        <v>277</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
@@ -909,7 +2084,7 @@
         <v>17</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>47</v>
+        <v>269</v>
       </c>
       <c r="F3" s="3">
         <v>1370</v>
@@ -923,7 +2098,7 @@
         <v>18</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>48</v>
+        <v>270</v>
       </c>
       <c r="F4" s="3">
         <v>1370</v>
@@ -940,7 +2115,7 @@
         <v>19</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>49</v>
+        <v>271</v>
       </c>
       <c r="F5" s="3">
         <v>1370</v>
@@ -960,6 +2135,191 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9F12779-EB74-418C-A629-4EDF7FE531C6}">
+  <dimension ref="A1:R5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="16.6640625"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="18.0"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="17.33203125"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="11.6640625"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="9.21875"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="10.77734375"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="26.77734375"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="19.5546875"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="18.77734375"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="20.44140625"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="23.33203125"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="20.44140625"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="19.109375"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="18.88671875"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="R1" s="14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s" s="84">
+        <v>150</v>
+      </c>
+      <c r="B2" t="s" s="85">
+        <v>151</v>
+      </c>
+      <c r="C2" t="s" s="87">
+        <v>153</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F2" s="3">
+        <v>1491</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="5">
+        <v>2024</v>
+      </c>
+      <c r="J2" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="M2" t="s" s="88">
+        <v>157</v>
+      </c>
+      <c r="N2" t="s" s="89">
+        <v>158</v>
+      </c>
+      <c r="O2" t="s" s="90">
+        <v>159</v>
+      </c>
+      <c r="P2" t="s" s="91">
+        <v>160</v>
+      </c>
+      <c r="Q2" t="s" s="96">
+        <v>165</v>
+      </c>
+      <c r="R2" t="s" s="97">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="D3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="F3" s="3">
+        <v>1491</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="D4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="F4" s="3">
+        <v>1491</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="D5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="F5" s="3">
+        <v>1491</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4110C51E-ADD3-40EA-A3F1-CB649A184727}">
   <dimension ref="A1:R6"/>
   <sheetViews>
@@ -969,22 +2329,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30" customWidth="1"/>
-    <col min="2" max="2" width="23.5546875" customWidth="1"/>
-    <col min="3" max="3" width="24.77734375" customWidth="1"/>
-    <col min="4" max="4" width="19.88671875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="23.77734375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="20.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="31.5546875" customWidth="1"/>
-    <col min="10" max="10" width="19.77734375" customWidth="1"/>
-    <col min="11" max="11" width="15" customWidth="1"/>
-    <col min="12" max="12" width="18.33203125" customWidth="1"/>
-    <col min="13" max="13" width="18.88671875" customWidth="1"/>
-    <col min="14" max="14" width="20.109375" customWidth="1"/>
-    <col min="15" max="15" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21" customWidth="1"/>
-    <col min="17" max="17" width="22" customWidth="1"/>
-    <col min="18" max="18" width="26.33203125" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="30.0"/>
+    <col min="2" max="2" customWidth="true" width="23.5546875"/>
+    <col min="3" max="3" customWidth="true" width="24.77734375"/>
+    <col min="4" max="4" customWidth="true" style="1" width="19.88671875"/>
+    <col min="5" max="5" customWidth="true" style="1" width="23.77734375"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="1" width="20.5546875"/>
+    <col min="8" max="8" customWidth="true" width="31.5546875"/>
+    <col min="10" max="10" customWidth="true" width="19.77734375"/>
+    <col min="11" max="11" customWidth="true" width="15.0"/>
+    <col min="12" max="12" customWidth="true" width="18.33203125"/>
+    <col min="13" max="13" customWidth="true" width="18.88671875"/>
+    <col min="14" max="14" customWidth="true" width="20.109375"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="23.33203125"/>
+    <col min="16" max="16" customWidth="true" width="21.0"/>
+    <col min="17" max="17" customWidth="true" width="22.0"/>
+    <col min="18" max="18" customWidth="true" width="26.33203125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -1081,10 +2441,10 @@
         <v>23</v>
       </c>
       <c r="M2" s="21" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="N2" s="21" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="O2" s="12" t="s">
         <v>35</v>
